--- a/UAL/output/dept1701/Michael Brewer_2022.xlsx
+++ b/UAL/output/dept1701/Michael Brewer_2022.xlsx
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bernard Nsengiyumva, M. Henry, Heather M Kuntz, Molly K. Estes, Melanie M Randall, Mindi Guptill</t>
+          <t>Bernard Nsengiyumva, M. Henry, Heather M Kuntz, Molly K. Estes, Melanie M. Randall, Mindi Guptill</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
